--- a/welltests.xlsx
+++ b/welltests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z447"/>
   <sheetViews>
-    <sheetView topLeftCell="W167" workbookViewId="0">
-      <selection activeCell="Z187" sqref="Z187"/>
+    <sheetView tabSelected="1" topLeftCell="G363" workbookViewId="0">
+      <selection activeCell="H385" sqref="H385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31218,7 +31218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>

--- a/welltests.xlsx
+++ b/welltests.xlsx
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G363" workbookViewId="0">
-      <selection activeCell="H385" sqref="H385"/>
+    <sheetView tabSelected="1" topLeftCell="N43" workbookViewId="0">
+      <selection activeCell="Z183" sqref="Z183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
